--- a/Analysis/SweepCount3_CT100.xlsx
+++ b/Analysis/SweepCount3_CT100.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsaikia/Desktop/Malinow/ADSP/PPP1CA/Ephys/CT100/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsaikia/Documents/GitHub/ephys/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="24560" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ForMatlab" sheetId="2" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="52">
   <si>
     <t>Construct</t>
   </si>
   <si>
-    <t>C0P1 -60 start</t>
-  </si>
-  <si>
     <t>C0P1 -60 stop</t>
   </si>
   <si>
@@ -156,13 +154,43 @@
   </si>
   <si>
     <t>js171101a1</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Pathway</t>
+  </si>
+  <si>
+    <t>Potential</t>
+  </si>
+  <si>
+    <t>Start/Stop</t>
+  </si>
+  <si>
+    <t>C0P1 -60 Start</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,8 +198,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -251,10 +308,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -265,8 +328,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,550 +613,1612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>-60</v>
+      </c>
+      <c r="D4">
+        <v>-60</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>-60</v>
+      </c>
+      <c r="J4">
+        <v>-60</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>40</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>-60</v>
+      </c>
+      <c r="P4">
+        <v>-60</v>
+      </c>
+      <c r="Q4">
+        <v>40</v>
+      </c>
+      <c r="R4">
+        <v>40</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>-60</v>
+      </c>
+      <c r="V4">
+        <v>-60</v>
+      </c>
+      <c r="W4">
+        <v>40</v>
+      </c>
+      <c r="X4">
+        <v>40</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>52</v>
+      </c>
+      <c r="F6">
+        <v>101</v>
+      </c>
+      <c r="G6">
+        <v>102</v>
+      </c>
+      <c r="H6">
+        <v>104</v>
+      </c>
+      <c r="I6">
+        <v>105</v>
+      </c>
+      <c r="J6">
+        <v>154</v>
+      </c>
+      <c r="K6">
+        <v>155</v>
+      </c>
+      <c r="L6">
+        <v>204</v>
+      </c>
+      <c r="M6">
+        <v>205</v>
+      </c>
+      <c r="N6">
+        <v>207</v>
+      </c>
+      <c r="O6">
+        <v>208</v>
+      </c>
+      <c r="P6">
+        <v>257</v>
+      </c>
+      <c r="Q6">
+        <v>258</v>
+      </c>
+      <c r="R6">
+        <v>307</v>
+      </c>
+      <c r="S6">
+        <v>308</v>
+      </c>
+      <c r="T6">
+        <v>309</v>
+      </c>
+      <c r="U6">
+        <v>310</v>
+      </c>
+      <c r="V6">
+        <v>359</v>
+      </c>
+      <c r="W6">
+        <v>360</v>
+      </c>
+      <c r="X6">
+        <v>409</v>
+      </c>
+      <c r="Y6">
+        <v>410</v>
+      </c>
+      <c r="Z6">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>51</v>
+      </c>
+      <c r="J7">
+        <v>99</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>147</v>
+      </c>
+      <c r="U7">
+        <v>148</v>
+      </c>
+      <c r="V7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <v>101</v>
+      </c>
+      <c r="G8">
+        <v>102</v>
+      </c>
+      <c r="H8">
+        <v>104</v>
+      </c>
+      <c r="I8">
+        <v>105</v>
+      </c>
+      <c r="J8">
+        <v>154</v>
+      </c>
+      <c r="K8">
+        <v>155</v>
+      </c>
+      <c r="L8">
+        <v>204</v>
+      </c>
+      <c r="M8">
+        <v>205</v>
+      </c>
+      <c r="N8">
+        <v>207</v>
+      </c>
+      <c r="O8">
+        <v>208</v>
+      </c>
+      <c r="P8">
+        <v>257</v>
+      </c>
+      <c r="Q8">
+        <v>258</v>
+      </c>
+      <c r="R8">
+        <v>307</v>
+      </c>
+      <c r="S8">
+        <v>308</v>
+      </c>
+      <c r="T8">
+        <v>310</v>
+      </c>
+      <c r="U8">
+        <v>311</v>
+      </c>
+      <c r="V8">
+        <v>360</v>
+      </c>
+      <c r="W8">
+        <v>361</v>
+      </c>
+      <c r="X8">
+        <v>410</v>
+      </c>
+      <c r="Y8">
+        <v>411</v>
+      </c>
+      <c r="Z8">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>52</v>
+      </c>
+      <c r="F9">
+        <v>101</v>
+      </c>
+      <c r="G9">
+        <v>102</v>
+      </c>
+      <c r="H9">
+        <v>104</v>
+      </c>
+      <c r="I9">
+        <v>105</v>
+      </c>
+      <c r="J9">
+        <v>154</v>
+      </c>
+      <c r="K9">
+        <v>155</v>
+      </c>
+      <c r="L9">
+        <v>204</v>
+      </c>
+      <c r="M9">
+        <v>205</v>
+      </c>
+      <c r="N9">
+        <v>207</v>
+      </c>
+      <c r="O9">
+        <v>208</v>
+      </c>
+      <c r="P9">
+        <v>257</v>
+      </c>
+      <c r="Q9">
+        <v>258</v>
+      </c>
+      <c r="R9">
+        <v>307</v>
+      </c>
+      <c r="S9">
+        <v>308</v>
+      </c>
+      <c r="T9">
+        <v>310</v>
+      </c>
+      <c r="U9">
+        <v>311</v>
+      </c>
+      <c r="V9">
+        <v>360</v>
+      </c>
+      <c r="W9">
+        <v>361</v>
+      </c>
+      <c r="X9">
+        <v>410</v>
+      </c>
+      <c r="Y9">
+        <v>411</v>
+      </c>
+      <c r="Z9">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>101</v>
+      </c>
+      <c r="G10">
+        <v>102</v>
+      </c>
+      <c r="H10">
+        <v>104</v>
+      </c>
+      <c r="I10">
+        <v>105</v>
+      </c>
+      <c r="J10">
+        <v>154</v>
+      </c>
+      <c r="K10">
+        <v>155</v>
+      </c>
+      <c r="L10">
+        <v>204</v>
+      </c>
+      <c r="M10">
+        <v>205</v>
+      </c>
+      <c r="N10">
+        <v>207</v>
+      </c>
+      <c r="O10">
+        <v>208</v>
+      </c>
+      <c r="P10">
+        <v>257</v>
+      </c>
+      <c r="Q10">
+        <v>258</v>
+      </c>
+      <c r="R10">
+        <v>307</v>
+      </c>
+      <c r="S10">
+        <v>308</v>
+      </c>
+      <c r="T10">
+        <v>310</v>
+      </c>
+      <c r="U10">
+        <v>311</v>
+      </c>
+      <c r="V10">
+        <v>360</v>
+      </c>
+      <c r="W10">
+        <v>361</v>
+      </c>
+      <c r="X10">
+        <v>410</v>
+      </c>
+      <c r="Y10">
+        <v>411</v>
+      </c>
+      <c r="Z10">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>51</v>
+      </c>
+      <c r="E11">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>101</v>
+      </c>
+      <c r="G11">
+        <v>102</v>
+      </c>
+      <c r="H11">
+        <v>104</v>
+      </c>
+      <c r="I11">
+        <v>105</v>
+      </c>
+      <c r="J11">
+        <v>154</v>
+      </c>
+      <c r="K11">
+        <v>155</v>
+      </c>
+      <c r="L11">
+        <v>204</v>
+      </c>
+      <c r="M11">
+        <v>205</v>
+      </c>
+      <c r="N11">
+        <v>207</v>
+      </c>
+      <c r="O11">
+        <v>208</v>
+      </c>
+      <c r="P11">
+        <v>257</v>
+      </c>
+      <c r="Q11">
+        <v>258</v>
+      </c>
+      <c r="R11">
+        <v>307</v>
+      </c>
+      <c r="S11">
+        <v>308</v>
+      </c>
+      <c r="T11">
+        <v>310</v>
+      </c>
+      <c r="U11">
+        <v>311</v>
+      </c>
+      <c r="V11">
+        <v>360</v>
+      </c>
+      <c r="W11">
+        <v>361</v>
+      </c>
+      <c r="X11">
+        <v>410</v>
+      </c>
+      <c r="Y11">
+        <v>411</v>
+      </c>
+      <c r="Z11">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>101</v>
+      </c>
+      <c r="G12">
+        <v>102</v>
+      </c>
+      <c r="H12">
+        <v>106</v>
+      </c>
+      <c r="I12">
+        <v>107</v>
+      </c>
+      <c r="J12">
+        <v>156</v>
+      </c>
+      <c r="K12">
+        <v>157</v>
+      </c>
+      <c r="L12">
+        <v>206</v>
+      </c>
+      <c r="M12">
+        <v>207</v>
+      </c>
+      <c r="N12">
+        <v>211</v>
+      </c>
+      <c r="O12">
+        <v>212</v>
+      </c>
+      <c r="P12">
+        <v>261</v>
+      </c>
+      <c r="Q12">
+        <v>262</v>
+      </c>
+      <c r="R12">
+        <v>311</v>
+      </c>
+      <c r="S12">
+        <v>312</v>
+      </c>
+      <c r="T12">
+        <v>316</v>
+      </c>
+      <c r="U12">
+        <v>317</v>
+      </c>
+      <c r="V12">
+        <v>366</v>
+      </c>
+      <c r="W12">
+        <v>367</v>
+      </c>
+      <c r="X12">
+        <v>416</v>
+      </c>
+      <c r="Y12">
+        <v>417</v>
+      </c>
+      <c r="Z12">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <v>101</v>
+      </c>
+      <c r="G13">
+        <v>102</v>
+      </c>
+      <c r="H13">
+        <v>104</v>
+      </c>
+      <c r="I13">
+        <v>105</v>
+      </c>
+      <c r="J13">
+        <v>154</v>
+      </c>
+      <c r="K13">
+        <v>155</v>
+      </c>
+      <c r="L13">
+        <v>204</v>
+      </c>
+      <c r="M13">
+        <v>205</v>
+      </c>
+      <c r="N13">
+        <v>207</v>
+      </c>
+      <c r="O13">
+        <v>208</v>
+      </c>
+      <c r="P13">
+        <v>257</v>
+      </c>
+      <c r="Q13">
+        <v>258</v>
+      </c>
+      <c r="R13">
+        <v>307</v>
+      </c>
+      <c r="S13">
+        <v>308</v>
+      </c>
+      <c r="T13">
+        <v>310</v>
+      </c>
+      <c r="U13">
+        <v>311</v>
+      </c>
+      <c r="V13">
+        <v>360</v>
+      </c>
+      <c r="W13">
+        <v>361</v>
+      </c>
+      <c r="X13">
+        <v>410</v>
+      </c>
+      <c r="Y13">
+        <v>411</v>
+      </c>
+      <c r="Z13">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <v>101</v>
+      </c>
+      <c r="G14">
+        <v>102</v>
+      </c>
+      <c r="H14">
+        <v>104</v>
+      </c>
+      <c r="I14">
+        <v>105</v>
+      </c>
+      <c r="J14">
+        <v>154</v>
+      </c>
+      <c r="K14">
+        <v>155</v>
+      </c>
+      <c r="L14">
+        <v>204</v>
+      </c>
+      <c r="M14">
+        <v>205</v>
+      </c>
+      <c r="N14">
+        <v>207</v>
+      </c>
+      <c r="O14">
+        <v>208</v>
+      </c>
+      <c r="P14">
+        <v>257</v>
+      </c>
+      <c r="Q14">
+        <v>258</v>
+      </c>
+      <c r="R14">
+        <v>307</v>
+      </c>
+      <c r="S14">
+        <v>308</v>
+      </c>
+      <c r="T14">
+        <v>310</v>
+      </c>
+      <c r="U14">
+        <v>311</v>
+      </c>
+      <c r="V14">
+        <v>360</v>
+      </c>
+      <c r="W14">
+        <v>361</v>
+      </c>
+      <c r="X14">
+        <v>410</v>
+      </c>
+      <c r="Y14">
+        <v>411</v>
+      </c>
+      <c r="Z14">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>101</v>
+      </c>
+      <c r="G15">
+        <v>102</v>
+      </c>
+      <c r="H15">
+        <v>104</v>
+      </c>
+      <c r="I15">
+        <v>105</v>
+      </c>
+      <c r="J15">
+        <v>154</v>
+      </c>
+      <c r="K15">
+        <v>155</v>
+      </c>
+      <c r="L15">
+        <v>204</v>
+      </c>
+      <c r="M15">
+        <v>205</v>
+      </c>
+      <c r="N15">
+        <v>207</v>
+      </c>
+      <c r="O15">
+        <v>208</v>
+      </c>
+      <c r="P15">
+        <v>257</v>
+      </c>
+      <c r="Q15">
+        <v>258</v>
+      </c>
+      <c r="R15">
+        <v>307</v>
+      </c>
+      <c r="S15">
+        <v>308</v>
+      </c>
+      <c r="T15">
+        <v>310</v>
+      </c>
+      <c r="U15">
+        <v>311</v>
+      </c>
+      <c r="V15">
+        <v>360</v>
+      </c>
+      <c r="W15">
+        <v>361</v>
+      </c>
+      <c r="X15">
+        <v>410</v>
+      </c>
+      <c r="Y15">
+        <v>411</v>
+      </c>
+      <c r="Z15">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG15"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <f>1+AA2</f>
-        <v>51</v>
-      </c>
-      <c r="E2">
-        <f>1+D2</f>
-        <v>52</v>
-      </c>
-      <c r="F2">
-        <f>D2+AB2</f>
-        <v>101</v>
-      </c>
-      <c r="G2">
-        <f>1+F2</f>
-        <v>102</v>
-      </c>
-      <c r="H2">
-        <f>F2+AC2</f>
-        <v>104</v>
-      </c>
-      <c r="I2">
-        <f>1+H2</f>
-        <v>105</v>
-      </c>
-      <c r="J2">
-        <f>H2+AA2</f>
-        <v>154</v>
-      </c>
-      <c r="K2">
-        <f>J2+1</f>
-        <v>155</v>
-      </c>
-      <c r="L2">
-        <f>J2+AB2</f>
-        <v>204</v>
-      </c>
-      <c r="M2">
-        <f>1+L2</f>
-        <v>205</v>
-      </c>
-      <c r="N2">
-        <f>L2+AC2</f>
-        <v>207</v>
-      </c>
-      <c r="O2">
-        <f>1+N2</f>
-        <v>208</v>
-      </c>
-      <c r="P2">
-        <f>N2+AD2</f>
-        <v>257</v>
-      </c>
-      <c r="Q2">
-        <f>1+P2</f>
-        <v>258</v>
-      </c>
-      <c r="R2">
-        <f>P2+AE2</f>
-        <v>307</v>
-      </c>
-      <c r="S2">
-        <f>1+R2</f>
-        <v>308</v>
-      </c>
-      <c r="T2">
-        <f>R2+AF2</f>
-        <v>309</v>
-      </c>
-      <c r="U2">
-        <f>1+T2</f>
-        <v>310</v>
-      </c>
-      <c r="V2">
-        <f>T2+AD2</f>
-        <v>359</v>
-      </c>
-      <c r="W2">
-        <f>1+V2</f>
-        <v>360</v>
-      </c>
-      <c r="X2">
-        <f>V2+AE2</f>
-        <v>409</v>
-      </c>
-      <c r="Y2">
-        <f>X2+1</f>
-        <v>410</v>
-      </c>
-      <c r="Z2">
-        <f>X2+AF2</f>
-        <v>411</v>
-      </c>
-      <c r="AA2">
-        <v>50</v>
-      </c>
-      <c r="AB2">
-        <v>50</v>
-      </c>
-      <c r="AC2">
-        <v>3</v>
-      </c>
-      <c r="AD2">
-        <v>50</v>
-      </c>
-      <c r="AE2">
-        <v>50</v>
-      </c>
-      <c r="AF2">
-        <v>2</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1</v>
+      </c>
+      <c r="L2" s="11">
+        <v>1</v>
+      </c>
+      <c r="M2" s="11">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11">
+        <v>1</v>
+      </c>
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>0</v>
+      </c>
+      <c r="R2" s="11">
+        <v>0</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0</v>
+      </c>
+      <c r="U2" s="11">
+        <v>1</v>
+      </c>
+      <c r="V2" s="11">
+        <v>1</v>
+      </c>
+      <c r="W2" s="11">
+        <v>1</v>
+      </c>
+      <c r="X2" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <f>1+AA3</f>
-        <v>50</v>
-      </c>
-      <c r="I3">
-        <v>51</v>
-      </c>
-      <c r="J3">
-        <v>99</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
-      </c>
-      <c r="P3">
-        <v>147</v>
-      </c>
-      <c r="U3">
-        <v>148</v>
-      </c>
-      <c r="V3">
-        <v>195</v>
-      </c>
-      <c r="AA3">
-        <v>49</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>48</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
+        <v>1</v>
+      </c>
+      <c r="O3" s="11">
+        <v>2</v>
+      </c>
+      <c r="P3" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>2</v>
+      </c>
+      <c r="R3" s="11">
+        <v>2</v>
+      </c>
+      <c r="S3" s="11">
+        <v>2</v>
+      </c>
+      <c r="T3" s="11">
+        <v>2</v>
+      </c>
+      <c r="U3" s="11">
+        <v>2</v>
+      </c>
+      <c r="V3" s="11">
+        <v>2</v>
+      </c>
+      <c r="W3" s="11">
+        <v>2</v>
+      </c>
+      <c r="X3" s="11">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <f>1+AA4</f>
-        <v>51</v>
-      </c>
-      <c r="E4">
-        <f>1+D4</f>
-        <v>52</v>
-      </c>
-      <c r="F4">
-        <f>D4+AB4</f>
-        <v>101</v>
-      </c>
-      <c r="G4">
-        <f>1+F4</f>
-        <v>102</v>
-      </c>
-      <c r="H4">
-        <f>F4+AC4</f>
-        <v>104</v>
-      </c>
-      <c r="I4">
-        <f>1+H4</f>
-        <v>105</v>
-      </c>
-      <c r="J4">
-        <f>H4+AA4</f>
-        <v>154</v>
-      </c>
-      <c r="K4">
-        <f>J4+1</f>
-        <v>155</v>
-      </c>
-      <c r="L4">
-        <f>J4+AB4</f>
-        <v>204</v>
-      </c>
-      <c r="M4">
-        <f>1+L4</f>
-        <v>205</v>
-      </c>
-      <c r="N4">
-        <f>L4+AC4</f>
-        <v>207</v>
-      </c>
-      <c r="O4">
-        <f>1+N4</f>
-        <v>208</v>
-      </c>
-      <c r="P4">
-        <f>N4+AD4</f>
-        <v>257</v>
-      </c>
-      <c r="Q4">
-        <f>1+P4</f>
-        <v>258</v>
-      </c>
-      <c r="R4">
-        <f>P4+AE4</f>
-        <v>307</v>
-      </c>
-      <c r="S4">
-        <f>1+R4</f>
-        <v>308</v>
-      </c>
-      <c r="T4">
-        <f>R4+AF4</f>
-        <v>310</v>
-      </c>
-      <c r="U4">
-        <f>1+T4</f>
-        <v>311</v>
-      </c>
-      <c r="V4">
-        <f>T4+AD4</f>
-        <v>360</v>
-      </c>
-      <c r="W4">
-        <f>1+V4</f>
-        <v>361</v>
-      </c>
-      <c r="X4">
-        <f>V4+AE4</f>
-        <v>410</v>
-      </c>
-      <c r="Y4">
-        <f>X4+1</f>
-        <v>411</v>
-      </c>
-      <c r="Z4">
-        <f>X4+AF4</f>
-        <v>413</v>
-      </c>
-      <c r="AA4">
-        <v>50</v>
-      </c>
-      <c r="AB4">
-        <v>50</v>
-      </c>
-      <c r="AC4">
-        <v>3</v>
-      </c>
-      <c r="AD4">
-        <v>50</v>
-      </c>
-      <c r="AE4">
-        <v>50</v>
-      </c>
-      <c r="AF4">
-        <v>3</v>
-      </c>
-      <c r="AG4">
+        <v>44</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-60</v>
+      </c>
+      <c r="D4" s="10">
+        <v>-60</v>
+      </c>
+      <c r="E4" s="11">
+        <v>40</v>
+      </c>
+      <c r="F4" s="11">
+        <v>40</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>-60</v>
+      </c>
+      <c r="J4" s="10">
+        <v>-60</v>
+      </c>
+      <c r="K4" s="11">
+        <v>40</v>
+      </c>
+      <c r="L4" s="11">
+        <v>40</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11">
+        <v>0</v>
+      </c>
+      <c r="O4" s="11">
+        <v>-60</v>
+      </c>
+      <c r="P4" s="11">
+        <v>-60</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>40</v>
+      </c>
+      <c r="R4" s="11">
+        <v>40</v>
+      </c>
+      <c r="S4" s="11">
+        <v>0</v>
+      </c>
+      <c r="T4" s="11">
+        <v>0</v>
+      </c>
+      <c r="U4" s="11">
+        <v>-60</v>
+      </c>
+      <c r="V4" s="11">
+        <v>-60</v>
+      </c>
+      <c r="W4" s="11">
+        <v>40</v>
+      </c>
+      <c r="X4" s="11">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <f>1+AA5</f>
-        <v>51</v>
-      </c>
-      <c r="E5">
-        <f>1+D5</f>
-        <v>52</v>
-      </c>
-      <c r="F5">
-        <f>D5+AB5</f>
-        <v>101</v>
-      </c>
-      <c r="G5">
-        <f>1+F5</f>
-        <v>102</v>
-      </c>
-      <c r="H5">
-        <f>F5+AC5</f>
-        <v>104</v>
-      </c>
-      <c r="I5">
-        <f>1+H5</f>
-        <v>105</v>
-      </c>
-      <c r="J5">
-        <f>H5+AA5</f>
-        <v>154</v>
-      </c>
-      <c r="K5">
-        <f>J5+1</f>
-        <v>155</v>
-      </c>
-      <c r="L5">
-        <f>J5+AB5</f>
-        <v>204</v>
-      </c>
-      <c r="M5">
-        <f>1+L5</f>
-        <v>205</v>
-      </c>
-      <c r="N5">
-        <f>L5+AC5</f>
-        <v>207</v>
-      </c>
-      <c r="O5">
-        <f>1+N5</f>
-        <v>208</v>
-      </c>
-      <c r="P5">
-        <f>N5+AD5</f>
-        <v>257</v>
-      </c>
-      <c r="Q5">
-        <f>1+P5</f>
-        <v>258</v>
-      </c>
-      <c r="R5">
-        <f>P5+AE5</f>
-        <v>307</v>
-      </c>
-      <c r="S5">
-        <f>1+R5</f>
-        <v>308</v>
-      </c>
-      <c r="T5">
-        <f>R5+AF5</f>
-        <v>310</v>
-      </c>
-      <c r="U5">
-        <f>1+T5</f>
-        <v>311</v>
-      </c>
-      <c r="V5">
-        <f>T5+AD5</f>
-        <v>360</v>
-      </c>
-      <c r="W5">
-        <f>1+V5</f>
-        <v>361</v>
-      </c>
-      <c r="X5">
-        <f>V5+AE5</f>
-        <v>410</v>
-      </c>
-      <c r="Y5">
-        <f>X5+1</f>
-        <v>411</v>
-      </c>
-      <c r="Z5">
-        <f>X5+AF5</f>
-        <v>413</v>
-      </c>
-      <c r="AA5">
-        <v>50</v>
-      </c>
-      <c r="AB5">
-        <v>50</v>
-      </c>
-      <c r="AC5">
-        <v>3</v>
-      </c>
-      <c r="AD5">
-        <v>50</v>
-      </c>
-      <c r="AE5">
-        <v>50</v>
-      </c>
-      <c r="AF5">
-        <v>3</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0</v>
+      </c>
+      <c r="P5" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>1</v>
+      </c>
+      <c r="S5" s="11">
+        <v>0</v>
+      </c>
+      <c r="T5" s="11">
+        <v>1</v>
+      </c>
+      <c r="U5" s="11">
+        <v>0</v>
+      </c>
+      <c r="V5" s="11">
+        <v>1</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0</v>
+      </c>
+      <c r="X5" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <f>1+AA6</f>
+        <f t="shared" ref="D6:D15" si="0">1+AA6</f>
         <v>51</v>
       </c>
       <c r="E6">
@@ -1150,31 +2283,31 @@
       </c>
       <c r="T6">
         <f>R6+AF6</f>
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U6">
         <f>1+T6</f>
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V6">
         <f>T6+AD6</f>
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="W6">
         <f>1+V6</f>
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="X6">
         <f>V6+AE6</f>
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Y6">
         <f>X6+1</f>
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Z6">
         <f>X6+AF6</f>
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AA6">
         <v>50</v>
@@ -1192,7 +2325,7 @@
         <v>50</v>
       </c>
       <c r="AF6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1200,123 +2333,53 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <f>1+AA7</f>
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I7">
         <v>51</v>
       </c>
-      <c r="E7">
-        <f>1+D7</f>
-        <v>52</v>
-      </c>
-      <c r="F7">
-        <f>D7+AB7</f>
-        <v>101</v>
-      </c>
-      <c r="G7">
-        <f>1+F7</f>
-        <v>102</v>
-      </c>
-      <c r="H7">
-        <f>F7+AC7</f>
-        <v>104</v>
-      </c>
-      <c r="I7">
-        <f>1+H7</f>
-        <v>105</v>
-      </c>
       <c r="J7">
-        <f>H7+AA7</f>
-        <v>154</v>
-      </c>
-      <c r="K7">
-        <f>J7+1</f>
-        <v>155</v>
-      </c>
-      <c r="L7">
-        <f>J7+AB7</f>
-        <v>204</v>
-      </c>
-      <c r="M7">
-        <f>1+L7</f>
-        <v>205</v>
-      </c>
-      <c r="N7">
-        <f>L7+AC7</f>
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="O7">
-        <f>1+N7</f>
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="P7">
-        <f>N7+AD7</f>
-        <v>257</v>
-      </c>
-      <c r="Q7">
-        <f>1+P7</f>
-        <v>258</v>
-      </c>
-      <c r="R7">
-        <f>P7+AE7</f>
-        <v>307</v>
-      </c>
-      <c r="S7">
-        <f>1+R7</f>
-        <v>308</v>
-      </c>
-      <c r="T7">
-        <f>R7+AF7</f>
-        <v>310</v>
+        <v>147</v>
       </c>
       <c r="U7">
-        <f>1+T7</f>
-        <v>311</v>
+        <v>148</v>
       </c>
       <c r="V7">
-        <f>T7+AD7</f>
-        <v>360</v>
-      </c>
-      <c r="W7">
-        <f>1+V7</f>
-        <v>361</v>
-      </c>
-      <c r="X7">
-        <f>V7+AE7</f>
-        <v>410</v>
-      </c>
-      <c r="Y7">
-        <f>X7+1</f>
-        <v>411</v>
-      </c>
-      <c r="Z7">
-        <f>X7+AF7</f>
-        <v>413</v>
+        <v>195</v>
       </c>
       <c r="AA7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1324,105 +2387,105 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <f>1+AA8</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="E8">
-        <f>1+D8</f>
+        <f t="shared" ref="E8:E15" si="1">1+D8</f>
         <v>52</v>
       </c>
       <c r="F8">
-        <f>D8+AB8</f>
+        <f t="shared" ref="F8:F15" si="2">D8+AB8</f>
         <v>101</v>
       </c>
       <c r="G8">
-        <f>1+F8</f>
+        <f t="shared" ref="G8:G15" si="3">1+F8</f>
         <v>102</v>
       </c>
       <c r="H8">
-        <f>F8+AC8</f>
-        <v>106</v>
+        <f t="shared" ref="H8:H15" si="4">F8+AC8</f>
+        <v>104</v>
       </c>
       <c r="I8">
-        <f>1+H8</f>
-        <v>107</v>
+        <f t="shared" ref="I8:I15" si="5">1+H8</f>
+        <v>105</v>
       </c>
       <c r="J8">
-        <f>H8+AA8</f>
-        <v>156</v>
+        <f t="shared" ref="J8:J15" si="6">H8+AA8</f>
+        <v>154</v>
       </c>
       <c r="K8">
-        <f>J8+1</f>
-        <v>157</v>
+        <f t="shared" ref="K8:K15" si="7">J8+1</f>
+        <v>155</v>
       </c>
       <c r="L8">
-        <f>J8+AB8</f>
-        <v>206</v>
+        <f t="shared" ref="L8:L15" si="8">J8+AB8</f>
+        <v>204</v>
       </c>
       <c r="M8">
-        <f>1+L8</f>
+        <f t="shared" ref="M8:M15" si="9">1+L8</f>
+        <v>205</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:N15" si="10">L8+AC8</f>
         <v>207</v>
       </c>
-      <c r="N8">
-        <f>L8+AC8</f>
-        <v>211</v>
-      </c>
       <c r="O8">
-        <f>1+N8</f>
-        <v>212</v>
+        <f t="shared" ref="O8:O15" si="11">1+N8</f>
+        <v>208</v>
       </c>
       <c r="P8">
-        <f>N8+AD8</f>
-        <v>261</v>
+        <f t="shared" ref="P8:P15" si="12">N8+AD8</f>
+        <v>257</v>
       </c>
       <c r="Q8">
-        <f>1+P8</f>
-        <v>262</v>
+        <f t="shared" ref="Q8:Q15" si="13">1+P8</f>
+        <v>258</v>
       </c>
       <c r="R8">
-        <f>P8+AE8</f>
+        <f t="shared" ref="R8:R15" si="14">P8+AE8</f>
+        <v>307</v>
+      </c>
+      <c r="S8">
+        <f t="shared" ref="S8:S15" si="15">1+R8</f>
+        <v>308</v>
+      </c>
+      <c r="T8">
+        <f t="shared" ref="T8:T15" si="16">R8+AF8</f>
+        <v>310</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:U15" si="17">1+T8</f>
         <v>311</v>
       </c>
-      <c r="S8">
-        <f>1+R8</f>
-        <v>312</v>
-      </c>
-      <c r="T8">
-        <f>R8+AF8</f>
-        <v>316</v>
-      </c>
-      <c r="U8">
-        <f>1+T8</f>
-        <v>317</v>
-      </c>
       <c r="V8">
-        <f>T8+AD8</f>
-        <v>366</v>
+        <f t="shared" ref="V8:V15" si="18">T8+AD8</f>
+        <v>360</v>
       </c>
       <c r="W8">
-        <f>1+V8</f>
-        <v>367</v>
+        <f t="shared" ref="W8:W15" si="19">1+V8</f>
+        <v>361</v>
       </c>
       <c r="X8">
-        <f>V8+AE8</f>
-        <v>416</v>
+        <f t="shared" ref="X8:X15" si="20">V8+AE8</f>
+        <v>410</v>
       </c>
       <c r="Y8">
-        <f>X8+1</f>
-        <v>417</v>
+        <f t="shared" ref="Y8:Y15" si="21">X8+1</f>
+        <v>411</v>
       </c>
       <c r="Z8">
-        <f>X8+AF8</f>
-        <v>421</v>
+        <f t="shared" ref="Z8:Z15" si="22">X8+AF8</f>
+        <v>413</v>
       </c>
       <c r="AA8">
         <v>50</v>
@@ -1431,7 +2494,7 @@
         <v>50</v>
       </c>
       <c r="AC8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AD8">
         <v>50</v>
@@ -1440,7 +2503,7 @@
         <v>50</v>
       </c>
       <c r="AF8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1448,104 +2511,104 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <f>1+AA9</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="E9">
-        <f>1+D9</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="F9">
-        <f>D9+AB9</f>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="G9">
-        <f>1+F9</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="H9">
-        <f>F9+AC9</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="I9">
-        <f>1+H9</f>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="J9">
-        <f>H9+AA9</f>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="K9">
-        <f>J9+1</f>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="L9">
-        <f>J9+AB9</f>
+        <f t="shared" si="8"/>
         <v>204</v>
       </c>
       <c r="M9">
-        <f>1+L9</f>
+        <f t="shared" si="9"/>
         <v>205</v>
       </c>
       <c r="N9">
-        <f>L9+AC9</f>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="O9">
-        <f>1+N9</f>
+        <f t="shared" si="11"/>
         <v>208</v>
       </c>
       <c r="P9">
-        <f>N9+AD9</f>
+        <f t="shared" si="12"/>
         <v>257</v>
       </c>
       <c r="Q9">
-        <f>1+P9</f>
+        <f t="shared" si="13"/>
         <v>258</v>
       </c>
       <c r="R9">
-        <f>P9+AE9</f>
+        <f t="shared" si="14"/>
         <v>307</v>
       </c>
       <c r="S9">
-        <f>1+R9</f>
+        <f t="shared" si="15"/>
         <v>308</v>
       </c>
       <c r="T9">
-        <f>R9+AF9</f>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="U9">
-        <f>1+T9</f>
+        <f t="shared" si="17"/>
         <v>311</v>
       </c>
       <c r="V9">
-        <f>T9+AD9</f>
+        <f t="shared" si="18"/>
         <v>360</v>
       </c>
       <c r="W9">
-        <f>1+V9</f>
+        <f t="shared" si="19"/>
         <v>361</v>
       </c>
       <c r="X9">
-        <f>V9+AE9</f>
+        <f t="shared" si="20"/>
         <v>410</v>
       </c>
       <c r="Y9">
-        <f>X9+1</f>
+        <f t="shared" si="21"/>
         <v>411</v>
       </c>
       <c r="Z9">
-        <f>X9+AF9</f>
+        <f t="shared" si="22"/>
         <v>413</v>
       </c>
       <c r="AA9">
@@ -1572,104 +2635,104 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <f>1+AA10</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="E10">
-        <f>1+D10</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="F10">
-        <f>D10+AB10</f>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="G10">
-        <f>1+F10</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="H10">
-        <f>F10+AC10</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="I10">
-        <f>1+H10</f>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="J10">
-        <f>H10+AA10</f>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="K10">
-        <f>J10+1</f>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="L10">
-        <f>J10+AB10</f>
+        <f t="shared" si="8"/>
         <v>204</v>
       </c>
       <c r="M10">
-        <f>1+L10</f>
+        <f t="shared" si="9"/>
         <v>205</v>
       </c>
       <c r="N10">
-        <f>L10+AC10</f>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="O10">
-        <f>1+N10</f>
+        <f t="shared" si="11"/>
         <v>208</v>
       </c>
       <c r="P10">
-        <f>N10+AD10</f>
+        <f t="shared" si="12"/>
         <v>257</v>
       </c>
       <c r="Q10">
-        <f>1+P10</f>
+        <f t="shared" si="13"/>
         <v>258</v>
       </c>
       <c r="R10">
-        <f>P10+AE10</f>
+        <f t="shared" si="14"/>
         <v>307</v>
       </c>
       <c r="S10">
-        <f>1+R10</f>
+        <f t="shared" si="15"/>
         <v>308</v>
       </c>
       <c r="T10">
-        <f>R10+AF10</f>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="U10">
-        <f>1+T10</f>
+        <f t="shared" si="17"/>
         <v>311</v>
       </c>
       <c r="V10">
-        <f>T10+AD10</f>
+        <f t="shared" si="18"/>
         <v>360</v>
       </c>
       <c r="W10">
-        <f>1+V10</f>
+        <f t="shared" si="19"/>
         <v>361</v>
       </c>
       <c r="X10">
-        <f>V10+AE10</f>
+        <f t="shared" si="20"/>
         <v>410</v>
       </c>
       <c r="Y10">
-        <f>X10+1</f>
+        <f t="shared" si="21"/>
         <v>411</v>
       </c>
       <c r="Z10">
-        <f>X10+AF10</f>
+        <f t="shared" si="22"/>
         <v>413</v>
       </c>
       <c r="AA10">
@@ -1696,104 +2759,104 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <f>1+AA11</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="E11">
-        <f>1+D11</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="F11">
-        <f>D11+AB11</f>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="G11">
-        <f>1+F11</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="H11">
-        <f>F11+AC11</f>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="I11">
-        <f>1+H11</f>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="J11">
-        <f>H11+AA11</f>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="K11">
-        <f>J11+1</f>
+        <f t="shared" si="7"/>
         <v>155</v>
       </c>
       <c r="L11">
-        <f>J11+AB11</f>
+        <f t="shared" si="8"/>
         <v>204</v>
       </c>
       <c r="M11">
-        <f>1+L11</f>
+        <f t="shared" si="9"/>
         <v>205</v>
       </c>
       <c r="N11">
-        <f>L11+AC11</f>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
       <c r="O11">
-        <f>1+N11</f>
+        <f t="shared" si="11"/>
         <v>208</v>
       </c>
       <c r="P11">
-        <f>N11+AD11</f>
+        <f t="shared" si="12"/>
         <v>257</v>
       </c>
       <c r="Q11">
-        <f>1+P11</f>
+        <f t="shared" si="13"/>
         <v>258</v>
       </c>
       <c r="R11">
-        <f>P11+AE11</f>
+        <f t="shared" si="14"/>
         <v>307</v>
       </c>
       <c r="S11">
-        <f>1+R11</f>
+        <f t="shared" si="15"/>
         <v>308</v>
       </c>
       <c r="T11">
-        <f>R11+AF11</f>
+        <f t="shared" si="16"/>
         <v>310</v>
       </c>
       <c r="U11">
-        <f>1+T11</f>
+        <f t="shared" si="17"/>
         <v>311</v>
       </c>
       <c r="V11">
-        <f>T11+AD11</f>
+        <f t="shared" si="18"/>
         <v>360</v>
       </c>
       <c r="W11">
-        <f>1+V11</f>
+        <f t="shared" si="19"/>
         <v>361</v>
       </c>
       <c r="X11">
-        <f>V11+AE11</f>
+        <f t="shared" si="20"/>
         <v>410</v>
       </c>
       <c r="Y11">
-        <f>X11+1</f>
+        <f t="shared" si="21"/>
         <v>411</v>
       </c>
       <c r="Z11">
-        <f>X11+AF11</f>
+        <f t="shared" si="22"/>
         <v>413</v>
       </c>
       <c r="AA11">
@@ -1815,6 +2878,502 @@
         <v>3</v>
       </c>
       <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>107</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>156</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>157</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>206</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="9"/>
+        <v>207</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="10"/>
+        <v>211</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="11"/>
+        <v>212</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="12"/>
+        <v>261</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="13"/>
+        <v>262</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="14"/>
+        <v>311</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="15"/>
+        <v>312</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="16"/>
+        <v>316</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="17"/>
+        <v>317</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="18"/>
+        <v>366</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="19"/>
+        <v>367</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="20"/>
+        <v>416</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="21"/>
+        <v>417</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="22"/>
+        <v>421</v>
+      </c>
+      <c r="AA12">
+        <v>50</v>
+      </c>
+      <c r="AB12">
+        <v>50</v>
+      </c>
+      <c r="AC12">
+        <v>5</v>
+      </c>
+      <c r="AD12">
+        <v>50</v>
+      </c>
+      <c r="AE12">
+        <v>50</v>
+      </c>
+      <c r="AF12">
+        <v>5</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="9"/>
+        <v>205</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="10"/>
+        <v>207</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="11"/>
+        <v>208</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="12"/>
+        <v>257</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="13"/>
+        <v>258</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="14"/>
+        <v>307</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="15"/>
+        <v>308</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="16"/>
+        <v>310</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="17"/>
+        <v>311</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="18"/>
+        <v>360</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="19"/>
+        <v>361</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="20"/>
+        <v>410</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="21"/>
+        <v>411</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="22"/>
+        <v>413</v>
+      </c>
+      <c r="AA13">
+        <v>50</v>
+      </c>
+      <c r="AB13">
+        <v>50</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
+      <c r="AD13">
+        <v>50</v>
+      </c>
+      <c r="AE13">
+        <v>50</v>
+      </c>
+      <c r="AF13">
+        <v>3</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="9"/>
+        <v>205</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="10"/>
+        <v>207</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="11"/>
+        <v>208</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="12"/>
+        <v>257</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="13"/>
+        <v>258</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="14"/>
+        <v>307</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="15"/>
+        <v>308</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="16"/>
+        <v>310</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="17"/>
+        <v>311</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="18"/>
+        <v>360</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="19"/>
+        <v>361</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="20"/>
+        <v>410</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="21"/>
+        <v>411</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="22"/>
+        <v>413</v>
+      </c>
+      <c r="AA14">
+        <v>50</v>
+      </c>
+      <c r="AB14">
+        <v>50</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14">
+        <v>50</v>
+      </c>
+      <c r="AE14">
+        <v>50</v>
+      </c>
+      <c r="AF14">
+        <v>3</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>154</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="9"/>
+        <v>205</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="10"/>
+        <v>207</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="11"/>
+        <v>208</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="12"/>
+        <v>257</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="13"/>
+        <v>258</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="14"/>
+        <v>307</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="15"/>
+        <v>308</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="16"/>
+        <v>310</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="17"/>
+        <v>311</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="18"/>
+        <v>360</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="19"/>
+        <v>361</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="20"/>
+        <v>410</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="21"/>
+        <v>411</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="22"/>
+        <v>413</v>
+      </c>
+      <c r="AA15">
+        <v>50</v>
+      </c>
+      <c r="AB15">
+        <v>50</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <v>50</v>
+      </c>
+      <c r="AE15">
+        <v>50</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AG15">
         <v>0</v>
       </c>
     </row>

--- a/Analysis/SweepCount3_CT100.xlsx
+++ b/Analysis/SweepCount3_CT100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ForMatlab" sheetId="2" r:id="rId1"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1782,7 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
